--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -1020,20 +1020,13 @@
 </t>
   </si>
   <si>
-    <t>医薬品を表すコード</t>
-  </si>
-  <si>
-    <t>医薬品を表すコード。JP Coreでは最低1個のコードを記録しなければならない。
-利用できるコードは下記の通りである。
-医薬品コード（医薬品マスター）
-薬価基準収載医薬品コード
-YJコード
-HOT コード（9 桁）
-一般名処方マスター</t>
-  </si>
-  <si>
-    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。
-【JP Core仕様】Medication要素の説明を参照のこと。</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -1048,130 +1041,16 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>このコードが直接ユーザーが指定したものであるかどうか</t>
-  </si>
-  <si>
-    <t>ユーザーが直接コーディングしたかどうかを示す。たとえば、有効な項目のリスト（コードか表現）から選択したかどうか。</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>MedicationRequest.medication[x].text</t>
   </si>
   <si>
-    <t>この概念のプレーンテキスト表現</t>
-  </si>
-  <si>
-    <t>入力したユーザーが見た/選択した/発したとおりの概念および・またはユーザーが意図した概念を自然言語で表現したもの。</t>
-  </si>
-  <si>
-    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
   </si>
   <si>
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
@@ -1582,7 +1461,7 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage_Prescription}
+    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage}
 </t>
   </si>
   <si>
@@ -1642,81 +1521,6 @@
     <t>薬剤単位の調剤指示を格納する</t>
   </si>
   <si>
-    <t>MedicationRequest.dispenseRequest.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DispenseRequest_InstructionForDispense</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>薬剤単位の調剤・払い出し指示</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Examples/ValueSet/JP_MedicationInstructionForDispenseJHSP0002_VS</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
     <t>expectedRepeatCount</t>
   </si>
   <si>
@@ -1725,6 +1529,9 @@
   </si>
   <si>
     <t>頓用回数</t>
+  </si>
+  <si>
+    <t>頓用回数を表現する拡張</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
@@ -2538,7 +2345,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN116"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2571,7 +2378,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="121.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -7405,19 +7212,23 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7465,7 +7276,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7477,7 +7288,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
@@ -7486,29 +7297,31 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -7517,19 +7330,19 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>300</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7567,51 +7380,51 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7619,7 +7432,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7634,20 +7447,18 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7695,10 +7506,10 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7710,24 +7521,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7747,19 +7558,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7809,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7824,24 +7635,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7852,7 +7663,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7861,21 +7672,21 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7923,13 +7734,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7938,24 +7749,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7963,7 +7774,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
@@ -7978,18 +7789,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8037,7 +7846,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8052,24 +7861,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8092,20 +7901,18 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8153,7 +7960,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8168,24 +7975,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8205,23 +8012,21 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>378</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8269,7 +8074,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8284,28 +8089,26 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8326,16 +8129,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>373</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8361,13 +8164,11 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -8385,10 +8186,10 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -8400,24 +8201,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>307</v>
+        <v>389</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8425,7 +8226,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8437,19 +8238,19 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8499,10 +8300,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8514,24 +8315,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8542,7 +8343,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8554,16 +8355,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>385</v>
+        <v>188</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8589,13 +8390,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8613,13 +8414,13 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8628,24 +8429,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8668,16 +8469,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8727,7 +8528,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8742,16 +8543,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8759,7 +8560,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8767,10 +8568,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8782,15 +8583,17 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8839,13 +8642,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8854,24 +8657,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8882,7 +8685,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8894,16 +8697,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>410</v>
+        <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8953,13 +8756,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8968,16 +8771,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8985,7 +8788,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8996,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -9005,19 +8808,19 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9067,13 +8870,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -9082,16 +8885,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9099,7 +8902,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9122,18 +8925,18 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9157,11 +8960,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9179,7 +8984,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9194,13 +8999,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9211,7 +9016,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9234,16 +9039,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>430</v>
+        <v>188</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9269,13 +9074,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -9293,7 +9098,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9314,10 +9119,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9325,7 +9130,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9348,16 +9153,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>445</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9383,13 +9188,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9407,7 +9212,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9422,24 +9227,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9462,16 +9267,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9521,7 +9326,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9536,16 +9341,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>248</v>
+        <v>456</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9553,7 +9358,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9573,19 +9378,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9635,7 +9440,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9650,13 +9455,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9667,7 +9472,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9678,7 +9483,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9687,20 +9492,18 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>465</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9749,13 +9552,13 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9767,10 +9570,10 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9781,7 +9584,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9792,7 +9595,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9801,20 +9604,18 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9863,28 +9664,28 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>463</v>
+        <v>170</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>468</v>
+        <v>171</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9895,7 +9696,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9906,7 +9707,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9915,21 +9716,19 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>470</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>471</v>
+        <v>135</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9965,40 +9764,38 @@
         <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>469</v>
+        <v>176</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -10009,9 +9806,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="C66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10020,7 +9819,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -10032,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>188</v>
+        <v>475</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>476</v>
@@ -10040,9 +9839,7 @@
       <c r="L66" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>478</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -10067,13 +9864,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10091,19 +9888,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>475</v>
+        <v>176</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -10112,7 +9909,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10123,9 +9920,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10134,7 +9933,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -10146,17 +9945,15 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10205,7 +10002,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10214,19 +10011,19 @@
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10237,11 +10034,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10254,24 +10051,26 @@
         <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>489</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10319,7 +10118,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10331,16 +10130,16 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>495</v>
+        <v>131</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10351,7 +10150,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10362,7 +10161,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10374,16 +10173,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10433,13 +10232,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10454,7 +10253,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10465,7 +10264,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10488,13 +10287,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>503</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>504</v>
+        <v>168</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>169</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10545,7 +10344,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>502</v>
+        <v>170</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10557,16 +10356,16 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>506</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>507</v>
+        <v>171</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10577,18 +10376,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10600,15 +10399,17 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>509</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10657,19 +10458,19 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10689,11 +10490,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10706,22 +10507,26 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10757,17 +10562,19 @@
         <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB72" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10788,7 +10595,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10799,11 +10606,9 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10812,7 +10617,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10824,15 +10629,17 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10881,19 +10688,19 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>176</v>
+        <v>495</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -10902,18 +10709,18 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10924,7 +10731,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -10936,15 +10743,17 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>504</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>168</v>
+        <v>505</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10993,7 +10802,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11005,7 +10814,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -11014,7 +10823,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>171</v>
+        <v>507</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -11025,7 +10834,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11036,7 +10845,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
@@ -11048,15 +10857,17 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>133</v>
+        <v>504</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>134</v>
+        <v>509</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
@@ -11093,31 +10904,31 @@
         <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11126,7 +10937,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11137,7 +10948,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11145,7 +10956,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>88</v>
@@ -11160,24 +10971,26 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="R76" t="s" s="2">
         <v>80</v>
@@ -11219,10 +11032,10 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>88</v>
@@ -11231,16 +11044,16 @@
         <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11251,7 +11064,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11274,13 +11087,13 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>514</v>
+        <v>168</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11319,17 +11132,19 @@
         <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>526</v>
+        <v>170</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11341,7 +11156,7 @@
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11350,7 +11165,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11361,20 +11176,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -11386,15 +11199,17 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>528</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -11431,31 +11246,31 @@
         <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>526</v>
+        <v>176</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>80</v>
@@ -11464,7 +11279,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11475,7 +11290,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11495,18 +11310,20 @@
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>363</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>168</v>
+        <v>521</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>80</v>
@@ -11555,7 +11372,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>170</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11564,10 +11381,10 @@
         <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11576,29 +11393,29 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>171</v>
+        <v>526</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>80</v>
@@ -11607,25 +11424,27 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>363</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>173</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>174</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>149</v>
+        <v>531</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>532</v>
+      </c>
       <c r="Q80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11657,31 +11476,31 @@
         <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11690,18 +11509,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>171</v>
+        <v>534</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11712,7 +11531,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>80</v>
@@ -11721,23 +11540,21 @@
         <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>318</v>
+        <v>537</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11761,35 +11578,37 @@
         <v>80</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X81" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>80</v>
@@ -11801,21 +11620,21 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>324</v>
+        <v>542</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>325</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11835,23 +11654,21 @@
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>90</v>
+        <v>496</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11899,7 +11716,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>369</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11908,10 +11725,10 @@
         <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
@@ -11920,22 +11737,20 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>370</v>
+        <v>501</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>371</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11956,15 +11771,17 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -12013,28 +11830,28 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>176</v>
+        <v>547</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -12045,43 +11862,39 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12129,19 +11942,19 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>548</v>
+        <v>170</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -12150,7 +11963,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
@@ -12161,18 +11974,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>80</v>
@@ -12184,16 +11997,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>503</v>
+        <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>550</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>551</v>
+        <v>174</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>552</v>
+        <v>149</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12231,31 +12044,31 @@
         <v>80</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>549</v>
+        <v>176</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
@@ -12264,7 +12077,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>553</v>
+        <v>171</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12275,7 +12088,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12295,19 +12108,23 @@
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>556</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>168</v>
+        <v>557</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12355,7 +12172,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>170</v>
+        <v>561</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12367,7 +12184,7 @@
         <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>80</v>
@@ -12376,56 +12193,58 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>171</v>
+        <v>562</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>173</v>
+        <v>565</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="Q87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12445,13 +12264,13 @@
         <v>80</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>80</v>
@@ -12469,19 +12288,19 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>176</v>
+        <v>571</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
@@ -12490,60 +12309,58 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>171</v>
+        <v>572</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>150</v>
+        <v>577</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>80</v>
@@ -12585,19 +12402,19 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
@@ -12606,18 +12423,18 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>131</v>
+        <v>580</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12637,27 +12454,27 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>558</v>
+        <v>102</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>80</v>
@@ -12699,7 +12516,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12708,10 +12525,10 @@
         <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>144</v>
+        <v>588</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>562</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12720,18 +12537,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12751,27 +12568,29 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>566</v>
+        <v>108</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>80</v>
@@ -12813,7 +12632,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12834,18 +12653,18 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12868,16 +12687,16 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>561</v>
+        <v>359</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12927,7 +12746,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12948,10 +12767,10 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -12959,7 +12778,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12982,20 +12801,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>217</v>
+        <v>465</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13043,7 +12858,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13061,10 +12876,10 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13075,7 +12890,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13187,7 +13002,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13257,16 +13072,16 @@
         <v>80</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
         <v>176</v>
@@ -13301,41 +13116,43 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>583</v>
+        <v>484</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>584</v>
+        <v>485</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13383,19 +13200,19 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>586</v>
+        <v>486</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>80</v>
@@ -13404,18 +13221,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>588</v>
+        <v>131</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13423,7 +13240,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -13435,27 +13252,25 @@
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>401</v>
+        <v>188</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P96" t="s" s="2">
-        <v>594</v>
-      </c>
+      <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13475,13 +13290,11 @@
         <v>80</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X96" s="2"/>
       <c r="Y96" t="s" s="2">
-        <v>80</v>
+        <v>614</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>80</v>
@@ -13499,16 +13312,16 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13517,21 +13330,21 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>597</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13554,16 +13367,16 @@
         <v>80</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>599</v>
+        <v>188</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13589,13 +13402,13 @@
         <v>80</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>80</v>
@@ -13613,7 +13426,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13631,21 +13444,21 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>605</v>
+        <v>625</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13668,16 +13481,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>561</v>
+        <v>359</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13727,7 +13540,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13736,41 +13549,41 @@
         <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>562</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>80</v>
+        <v>633</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>80</v>
@@ -13782,16 +13595,16 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13841,13 +13654,13 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
@@ -13859,10 +13672,10 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13873,7 +13686,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13884,7 +13697,7 @@
         <v>78</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13896,15 +13709,17 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>640</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>168</v>
+        <v>641</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>80</v>
@@ -13953,1859 +13768,33 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>170</v>
+        <v>639</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>171</v>
+        <v>645</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="Q103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X112" s="2"/>
-      <c r="Y112" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN116" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -456,10 +456,10 @@
 </t>
   </si>
   <si>
-    <t>調剤についてのExtension</t>
-  </si>
-  <si>
-    <t>一包化、粉砕などの処理を行った際に記載する。</t>
+    <t>調剤結果</t>
+  </si>
+  <si>
+    <t>薬剤単位の調剤結果</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="687">
   <si>
     <t>Property</t>
   </si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -952,16 +949,25 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t>A coded concept identifying substance or product that can be ordered.</t>
@@ -1001,6 +1007,15 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
+    <t>Medication to be taken</t>
+  </si>
+  <si>
+    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
+  </si>
+  <si>
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
@@ -1020,13 +1035,15 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.
+コード集で定義された医薬品コードへの情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
+</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -1039,6 +1056,123 @@
   </si>
   <si>
     <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].text</t>
@@ -2345,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5378,7 +5512,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5412,7 +5546,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
@@ -5494,7 +5628,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>88</v>
@@ -5512,13 +5646,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5826,7 +5960,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5852,13 +5986,13 @@
         <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5887,11 +6021,11 @@
         <v>182</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5908,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -5923,16 +6057,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5940,7 +6074,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5966,13 +6100,13 @@
         <v>188</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5998,14 +6132,14 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6022,7 +6156,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6037,13 +6171,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6054,7 +6188,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6080,13 +6214,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6094,7 +6228,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6115,11 +6249,11 @@
         <v>182</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6136,7 +6270,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6151,16 +6285,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6168,7 +6302,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6194,13 +6328,13 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6226,14 +6360,14 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6250,7 +6384,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6268,13 +6402,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6282,7 +6416,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6308,13 +6442,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6343,11 +6477,11 @@
         <v>182</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6364,7 +6498,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6379,16 +6513,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6396,7 +6530,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6419,16 +6553,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6478,7 +6612,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6499,7 +6633,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6510,7 +6644,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6533,13 +6667,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6590,7 +6724,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6611,7 +6745,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6622,7 +6756,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6645,16 +6779,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6680,29 +6814,29 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6717,27 +6851,27 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>80</v>
@@ -6762,13 +6896,13 @@
         <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6797,10 +6931,10 @@
         <v>112</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6818,7 +6952,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6833,24 +6967,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6962,7 +7096,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7076,7 +7210,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7099,19 +7233,19 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7160,7 +7294,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7181,18 +7315,18 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7212,23 +7346,19 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7276,7 +7406,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7288,7 +7418,7 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
@@ -7297,31 +7427,29 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>171</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -7330,19 +7458,19 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7380,51 +7508,51 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7447,18 +7575,20 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7506,10 +7636,10 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7521,24 +7651,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7558,19 +7688,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>347</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7620,7 +7750,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7635,24 +7765,24 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7660,10 +7790,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7672,21 +7802,21 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7734,13 +7864,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7749,24 +7879,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7774,7 +7904,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>88</v>
@@ -7789,16 +7919,18 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7846,7 +7978,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7861,24 +7993,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7901,18 +8033,20 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7960,7 +8094,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7975,24 +8109,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8012,21 +8146,23 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>378</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8074,7 +8210,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8089,26 +8225,28 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8129,16 +8267,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8164,11 +8302,13 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>80</v>
@@ -8186,10 +8326,10 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>88</v>
@@ -8201,24 +8341,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8226,7 +8366,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8238,19 +8378,19 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8300,10 +8440,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8315,24 +8455,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8343,7 +8483,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -8355,16 +8495,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>188</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8390,13 +8530,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8414,13 +8554,13 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>80</v>
@@ -8429,24 +8569,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>247</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8469,16 +8609,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8528,7 +8668,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8543,16 +8683,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8560,7 +8700,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8568,10 +8708,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8583,17 +8723,15 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8642,13 +8780,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8657,24 +8795,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8685,7 +8823,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8697,16 +8835,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8756,13 +8894,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8771,16 +8909,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8788,7 +8926,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8799,7 +8937,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8808,19 +8946,19 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8870,13 +9008,13 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -8885,16 +9023,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8902,7 +9040,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8925,18 +9063,18 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8960,13 +9098,11 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8984,7 +9120,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8999,13 +9135,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9016,7 +9152,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9039,16 +9175,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9074,13 +9210,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -9098,7 +9234,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9119,10 +9255,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9130,7 +9266,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9153,16 +9289,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9188,13 +9324,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9212,7 +9348,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9227,24 +9363,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9267,16 +9403,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9326,7 +9462,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9341,16 +9477,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9358,7 +9494,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9378,19 +9514,19 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9440,7 +9576,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9455,13 +9591,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9472,7 +9608,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9483,7 +9619,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9492,18 +9628,20 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9552,13 +9690,13 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9570,10 +9708,10 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9584,7 +9722,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9595,7 +9733,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9604,18 +9742,20 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>467</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9664,28 +9804,28 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>170</v>
+        <v>466</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>171</v>
+        <v>471</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9696,7 +9836,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9707,7 +9847,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9716,19 +9856,21 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>473</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>474</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9764,38 +9906,40 @@
         <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>176</v>
+        <v>472</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9806,11 +9950,9 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9819,7 +9961,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9831,15 +9973,17 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>475</v>
+        <v>188</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
@@ -9864,13 +10008,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -9888,19 +10032,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>176</v>
+        <v>478</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -9909,7 +10053,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9920,11 +10064,9 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9933,7 +10075,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -9945,15 +10087,17 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10002,7 +10146,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>176</v>
+        <v>485</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10011,19 +10155,19 @@
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10034,11 +10178,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10051,26 +10195,24 @@
         <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10118,7 +10260,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10130,16 +10272,16 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10150,7 +10292,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10161,7 +10303,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10173,16 +10315,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10232,13 +10374,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10253,7 +10395,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10264,7 +10406,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10287,13 +10429,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>506</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>168</v>
+        <v>507</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10344,7 +10486,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>170</v>
+        <v>505</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10356,16 +10498,16 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>171</v>
+        <v>510</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10376,18 +10518,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10399,17 +10541,15 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>173</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10458,19 +10598,19 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>80</v>
@@ -10490,11 +10630,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10507,26 +10647,22 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>484</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10562,19 +10698,17 @@
         <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB72" s="2"/>
       <c r="AC72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>486</v>
+        <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10595,7 +10729,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10606,9 +10740,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10617,7 +10753,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10629,17 +10765,15 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10688,19 +10822,19 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>495</v>
+        <v>176</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>500</v>
+        <v>139</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -10709,20 +10843,22 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10743,17 +10879,15 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
@@ -10802,19 +10936,19 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>503</v>
+        <v>176</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -10823,7 +10957,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10834,41 +10968,43 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>504</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10916,19 +11052,19 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -10937,7 +11073,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>131</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10948,7 +11084,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10971,20 +11107,18 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>217</v>
+        <v>506</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11032,7 +11166,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11050,10 +11184,10 @@
         <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11064,7 +11198,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11176,7 +11310,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11246,16 +11380,16 @@
         <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>176</v>
@@ -11290,41 +11424,43 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11372,19 +11508,19 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>80</v>
@@ -11393,18 +11529,18 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>526</v>
+        <v>131</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11424,27 +11560,25 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>363</v>
+        <v>537</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P80" t="s" s="2">
-        <v>532</v>
-      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11488,7 +11622,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11497,10 +11631,10 @@
         <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>525</v>
+        <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11509,18 +11643,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11543,13 +11677,13 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>540</v>
@@ -11602,7 +11736,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11620,21 +11754,21 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11657,16 +11791,16 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11716,7 +11850,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11725,10 +11859,10 @@
         <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
@@ -11737,18 +11871,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11771,18 +11905,20 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>504</v>
+        <v>217</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11830,7 +11966,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11848,10 +11984,10 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11862,7 +11998,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11974,7 +12110,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12088,7 +12224,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12111,20 +12247,18 @@
         <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>556</v>
+        <v>404</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12172,7 +12306,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12181,7 +12315,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12193,18 +12327,18 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12221,83 +12355,83 @@
         <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Q87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH87" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="Q87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12309,18 +12443,18 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12340,27 +12474,27 @@
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>578</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>80</v>
@@ -12402,7 +12536,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12420,21 +12554,21 @@
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12454,27 +12588,27 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>102</v>
+        <v>537</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>80</v>
@@ -12516,7 +12650,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12525,10 +12659,10 @@
         <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>588</v>
+        <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12537,18 +12671,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>581</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12568,29 +12702,27 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>108</v>
+        <v>545</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>594</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>80</v>
@@ -12632,7 +12764,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12650,21 +12782,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12687,17 +12819,15 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>599</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>600</v>
+        <v>168</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>80</v>
@@ -12746,7 +12876,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>598</v>
+        <v>170</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12758,7 +12888,7 @@
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>80</v>
@@ -12767,10 +12897,10 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>602</v>
+        <v>171</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -12778,18 +12908,18 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -12801,15 +12931,17 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>465</v>
+        <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>604</v>
+        <v>173</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -12846,40 +12978,40 @@
         <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>603</v>
+        <v>176</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>607</v>
+        <v>171</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12890,7 +13022,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12910,19 +13042,23 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>90</v>
+        <v>597</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>168</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12970,7 +13106,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>170</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12982,7 +13118,7 @@
         <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>80</v>
@@ -12991,56 +13127,58 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>171</v>
+        <v>603</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>173</v>
+        <v>606</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13060,13 +13198,13 @@
         <v>80</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -13084,19 +13222,19 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>176</v>
+        <v>612</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>80</v>
@@ -13105,60 +13243,58 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>171</v>
+        <v>613</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>484</v>
+        <v>616</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>150</v>
+        <v>618</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>80</v>
@@ -13200,19 +13336,19 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>486</v>
+        <v>620</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>80</v>
@@ -13221,18 +13357,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>131</v>
+        <v>621</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13240,7 +13376,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -13252,27 +13388,27 @@
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>80</v>
@@ -13290,11 +13426,13 @@
         <v>80</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X96" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y96" t="s" s="2">
-        <v>614</v>
+        <v>80</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>80</v>
@@ -13312,16 +13450,16 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13330,21 +13468,21 @@
         <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13364,27 +13502,29 @@
         <v>80</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>80</v>
+        <v>636</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>80</v>
@@ -13402,13 +13542,13 @@
         <v>80</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>621</v>
+        <v>80</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>80</v>
@@ -13426,7 +13566,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13444,21 +13584,21 @@
         <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13481,16 +13621,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13540,7 +13680,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13555,16 +13695,16 @@
         <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13572,18 +13712,18 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>80</v>
@@ -13595,17 +13735,15 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>634</v>
+        <v>506</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>80</v>
@@ -13654,13 +13792,13 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>80</v>
@@ -13672,10 +13810,10 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>80</v>
+        <v>647</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13686,7 +13824,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13697,7 +13835,7 @@
         <v>78</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>80</v>
@@ -13709,17 +13847,15 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>640</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>641</v>
+        <v>168</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>80</v>
@@ -13768,33 +13904,831 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>639</v>
+        <v>170</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI100" t="s" s="2">
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X103" s="2"/>
+      <c r="Y103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ100" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AJ103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="688">
   <si>
     <t>Property</t>
   </si>
@@ -287,7 +287,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -539,6 +539,10 @@
   </si>
   <si>
     <t>MedicationRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4039,13 +4043,13 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4096,7 +4100,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -4117,7 +4121,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -4128,7 +4132,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4154,10 +4158,10 @@
         <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>149</v>
@@ -4201,7 +4205,7 @@
         <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
@@ -4210,7 +4214,7 @@
         <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -4231,7 +4235,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -4242,7 +4246,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4268,16 +4272,16 @@
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -4302,13 +4306,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -4326,7 +4330,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4347,7 +4351,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -4358,7 +4362,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4381,19 +4385,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -4418,13 +4422,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -4442,7 +4446,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4463,18 +4467,18 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4500,29 +4504,29 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4558,7 +4562,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4579,18 +4583,18 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4613,16 +4617,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4636,7 +4640,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4672,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4693,18 +4697,18 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4727,13 +4731,13 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4784,7 +4788,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4805,18 +4809,18 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4839,16 +4843,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4898,7 +4902,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4919,13 +4923,13 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -4933,7 +4937,7 @@
         <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
@@ -4958,13 +4962,13 @@
         <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5069,13 +5073,13 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5126,7 +5130,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5147,7 +5151,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5158,7 +5162,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5184,10 +5188,10 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>149</v>
@@ -5231,7 +5235,7 @@
         <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
@@ -5240,7 +5244,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5261,7 +5265,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -5272,7 +5276,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5298,16 +5302,16 @@
         <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5332,13 +5336,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -5356,7 +5360,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5377,7 +5381,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5388,7 +5392,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5411,19 +5415,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -5448,13 +5452,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -5472,7 +5476,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5493,18 +5497,18 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5530,16 +5534,16 @@
         <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5552,7 +5556,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5588,7 +5592,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5609,18 +5613,18 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5643,16 +5647,16 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5666,7 +5670,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5702,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5723,18 +5727,18 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5757,13 +5761,13 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5814,7 +5818,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5835,18 +5839,18 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5869,16 +5873,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5928,7 +5932,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5949,18 +5953,18 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5986,13 +5990,13 @@
         <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6018,13 +6022,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -6042,7 +6046,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -6057,16 +6061,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6074,7 +6078,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6097,16 +6101,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6132,13 +6136,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -6156,7 +6160,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6171,13 +6175,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6188,7 +6192,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6214,13 +6218,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6228,7 +6232,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6246,13 +6250,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6270,7 +6274,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6285,16 +6289,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6302,7 +6306,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6325,16 +6329,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6360,13 +6364,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6384,7 +6388,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6402,13 +6406,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6416,7 +6420,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6442,13 +6446,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6474,13 +6478,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6498,7 +6502,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6513,16 +6517,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6530,7 +6534,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6553,16 +6557,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6612,7 +6616,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6633,7 +6637,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6644,7 +6648,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6667,13 +6671,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6724,7 +6728,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6745,7 +6749,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6756,7 +6760,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6779,16 +6783,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6814,29 +6818,29 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6851,27 +6855,27 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>80</v>
@@ -6893,16 +6897,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6931,10 +6935,10 @@
         <v>112</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6952,7 +6956,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6967,24 +6971,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7007,13 +7011,13 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7064,7 +7068,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7085,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -7096,7 +7100,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7122,10 +7126,10 @@
         <v>133</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>149</v>
@@ -7169,7 +7173,7 @@
         <v>136</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>80</v>
@@ -7178,7 +7182,7 @@
         <v>137</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7199,7 +7203,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7210,7 +7214,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7233,19 +7237,19 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7294,7 +7298,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7315,18 +7319,18 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7349,13 +7353,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7406,7 +7410,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7427,7 +7431,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7438,7 +7442,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7464,10 +7468,10 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>149</v>
@@ -7511,7 +7515,7 @@
         <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
@@ -7520,7 +7524,7 @@
         <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7541,7 +7545,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7552,7 +7556,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7578,16 +7582,16 @@
         <v>102</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7636,7 +7640,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7657,18 +7661,18 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7691,16 +7695,16 @@
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7750,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7771,18 +7775,18 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7808,14 +7812,14 @@
         <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7864,7 +7868,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7885,18 +7889,18 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7919,17 +7923,17 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7978,7 +7982,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7999,18 +8003,18 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8033,19 +8037,19 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8094,7 +8098,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8115,18 +8119,18 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8149,19 +8153,19 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8210,7 +8214,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8231,21 +8235,21 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>80</v>
@@ -8267,16 +8271,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8326,7 +8330,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>88</v>
@@ -8341,24 +8345,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8381,16 +8385,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8440,7 +8444,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>88</v>
@@ -8455,24 +8459,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8495,16 +8499,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8554,7 +8558,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8569,24 +8573,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8609,16 +8613,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8668,7 +8672,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8683,16 +8687,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8700,7 +8704,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8723,13 +8727,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8780,7 +8784,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8795,24 +8799,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8835,16 +8839,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8894,7 +8898,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8909,16 +8913,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8926,7 +8930,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8949,16 +8953,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9008,7 +9012,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9023,16 +9027,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9040,7 +9044,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9063,16 +9067,16 @@
         <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9098,11 +9102,11 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9120,7 +9124,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9135,13 +9139,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9152,7 +9156,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9175,16 +9179,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9234,7 +9238,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9255,10 +9259,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9266,7 +9270,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9289,16 +9293,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9324,13 +9328,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9348,7 +9352,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9363,24 +9367,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9403,16 +9407,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9462,7 +9466,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9477,16 +9481,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9494,7 +9498,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9517,16 +9521,16 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9576,7 +9580,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9591,13 +9595,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9608,7 +9612,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9634,13 +9638,13 @@
         <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9690,7 +9694,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9711,7 +9715,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9722,7 +9726,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9745,16 +9749,16 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9804,7 +9808,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9819,13 +9823,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9836,7 +9840,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9862,14 +9866,14 @@
         <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9918,7 +9922,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9933,13 +9937,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9950,7 +9954,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9973,16 +9977,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10008,13 +10012,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10032,7 +10036,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10053,7 +10057,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10064,7 +10068,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10087,16 +10091,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10146,7 +10150,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10161,13 +10165,13 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10178,7 +10182,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10201,16 +10205,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10260,7 +10264,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10275,13 +10279,13 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10292,7 +10296,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10315,16 +10319,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10374,7 +10378,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10395,7 +10399,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10406,7 +10410,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10429,13 +10433,13 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10486,7 +10490,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10504,10 +10508,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10518,7 +10522,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10541,13 +10545,13 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10598,7 +10602,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10619,7 +10623,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -10630,7 +10634,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10708,7 +10712,7 @@
         <v>137</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10740,10 +10744,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>80</v>
@@ -10765,13 +10769,13 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10822,7 +10826,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10854,10 +10858,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>80</v>
@@ -10879,13 +10883,13 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10936,7 +10940,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10968,11 +10972,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10994,10 +10998,10 @@
         <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>149</v>
@@ -11052,7 +11056,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11084,7 +11088,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11107,16 +11111,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11166,7 +11170,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11187,7 +11191,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
@@ -11198,7 +11202,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11221,13 +11225,13 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11278,7 +11282,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11299,7 +11303,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11310,7 +11314,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11336,10 +11340,10 @@
         <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>149</v>
@@ -11392,7 +11396,7 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11413,7 +11417,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11424,11 +11428,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11450,10 +11454,10 @@
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>149</v>
@@ -11508,7 +11512,7 @@
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11540,7 +11544,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11563,16 +11567,16 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11622,7 +11626,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11634,7 +11638,7 @@
         <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -11643,18 +11647,18 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11677,16 +11681,16 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11736,7 +11740,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11757,7 +11761,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11768,7 +11772,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11791,16 +11795,16 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11850,7 +11854,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11871,7 +11875,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11882,7 +11886,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11905,19 +11909,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -11966,7 +11970,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11984,10 +11988,10 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11998,7 +12002,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12021,13 +12025,13 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12078,7 +12082,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12099,7 +12103,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
@@ -12110,7 +12114,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12136,10 +12140,10 @@
         <v>133</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>149</v>
@@ -12183,7 +12187,7 @@
         <v>136</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>80</v>
@@ -12192,7 +12196,7 @@
         <v>137</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12213,7 +12217,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12224,7 +12228,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12247,16 +12251,16 @@
         <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12306,7 +12310,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12315,7 +12319,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12327,18 +12331,18 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12361,23 +12365,23 @@
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>80</v>
@@ -12422,7 +12426,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12431,7 +12435,7 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12443,18 +12447,18 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12477,16 +12481,16 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12536,7 +12540,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12554,21 +12558,21 @@
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12591,16 +12595,16 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12650,7 +12654,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12662,7 +12666,7 @@
         <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12671,18 +12675,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12705,16 +12709,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12764,7 +12768,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12782,10 +12786,10 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12796,7 +12800,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12819,13 +12823,13 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12876,7 +12880,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12897,7 +12901,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12908,7 +12912,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12934,10 +12938,10 @@
         <v>133</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>149</v>
@@ -12981,7 +12985,7 @@
         <v>136</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>80</v>
@@ -12990,7 +12994,7 @@
         <v>137</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13011,7 +13015,7 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13022,7 +13026,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13045,19 +13049,19 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -13106,7 +13110,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13127,18 +13131,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13164,20 +13168,20 @@
         <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>80</v>
@@ -13198,13 +13202,13 @@
         <v>80</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -13222,7 +13226,7 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13243,18 +13247,18 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13277,24 +13281,24 @@
         <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>80</v>
@@ -13336,7 +13340,7 @@
         <v>80</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13357,18 +13361,18 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13394,21 +13398,21 @@
         <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>80</v>
@@ -13450,7 +13454,7 @@
         <v>80</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13459,7 +13463,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13471,18 +13475,18 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13508,23 +13512,23 @@
         <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>80</v>
@@ -13566,7 +13570,7 @@
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13587,18 +13591,18 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13621,16 +13625,16 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13680,7 +13684,7 @@
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13701,10 +13705,10 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13712,7 +13716,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13735,13 +13739,13 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13792,7 +13796,7 @@
         <v>80</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13810,10 +13814,10 @@
         <v>80</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13824,7 +13828,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13847,13 +13851,13 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13904,7 +13908,7 @@
         <v>80</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -13925,7 +13929,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
@@ -13936,7 +13940,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13962,10 +13966,10 @@
         <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>149</v>
@@ -14018,7 +14022,7 @@
         <v>80</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14039,7 +14043,7 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -14050,11 +14054,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14076,10 +14080,10 @@
         <v>133</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>149</v>
@@ -14134,7 +14138,7 @@
         <v>80</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14166,7 +14170,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14189,16 +14193,16 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14228,7 +14232,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>80</v>
@@ -14246,7 +14250,7 @@
         <v>80</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>88</v>
@@ -14264,21 +14268,21 @@
         <v>80</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14301,16 +14305,16 @@
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14336,13 +14340,13 @@
         <v>80</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>80</v>
@@ -14360,7 +14364,7 @@
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14378,21 +14382,21 @@
         <v>80</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14415,16 +14419,16 @@
         <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14474,7 +14478,7 @@
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14489,13 +14493,13 @@
         <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
@@ -14506,11 +14510,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14529,16 +14533,16 @@
         <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14588,7 +14592,7 @@
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14609,7 +14613,7 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
@@ -14620,7 +14624,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14643,16 +14647,16 @@
         <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14702,7 +14706,7 @@
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14717,13 +14721,13 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>The value that is unique</t>
@@ -980,13 +983,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.code</t>
   </si>
   <si>
@@ -1006,208 +1002,6 @@
   </si>
   <si>
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -2483,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2493,7 +2287,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.16796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5516,7 +5310,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5550,7 +5344,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>80</v>
@@ -5650,13 +5444,13 @@
         <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5964,7 +5758,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5990,13 +5784,13 @@
         <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6025,10 +5819,10 @@
         <v>183</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>80</v>
@@ -6046,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -6061,16 +5855,16 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6078,7 +5872,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6104,13 +5898,13 @@
         <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6136,13 +5930,13 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>80</v>
@@ -6160,7 +5954,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6175,13 +5969,13 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -6192,7 +5986,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6218,13 +6012,13 @@
         <v>108</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6232,7 +6026,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>80</v>
@@ -6253,10 +6047,10 @@
         <v>183</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6274,7 +6068,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>88</v>
@@ -6289,16 +6083,16 @@
         <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6306,7 +6100,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6332,13 +6126,13 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6364,13 +6158,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -6388,7 +6182,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6406,13 +6200,13 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6420,7 +6214,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6446,13 +6240,13 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6481,10 +6275,10 @@
         <v>183</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -6502,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6517,16 +6311,16 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6534,7 +6328,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6557,16 +6351,16 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6616,7 +6410,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6637,7 +6431,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6648,7 +6442,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6671,13 +6465,13 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6728,7 +6522,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6749,7 +6543,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6760,7 +6554,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6783,16 +6577,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6818,29 +6612,31 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6855,34 +6651,32 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>88</v>
@@ -6897,7 +6691,7 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>313</v>
@@ -6932,13 +6726,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6956,7 +6750,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>88</v>
@@ -6971,24 +6765,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7011,15 +6805,17 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -7068,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>171</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7080,31 +6876,31 @@
         <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -7123,16 +6919,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7170,19 +6966,19 @@
         <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7194,19 +6990,19 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7214,7 +7010,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7225,7 +7021,7 @@
         <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7237,20 +7033,16 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7298,13 +7090,13 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
@@ -7313,24 +7105,24 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7350,18 +7142,20 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -7410,7 +7204,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>171</v>
+        <v>346</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7422,19 +7216,19 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7442,18 +7236,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -7465,16 +7259,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>175</v>
+        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7512,43 +7306,43 @@
         <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7556,7 +7350,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7564,7 +7358,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
@@ -7579,20 +7373,18 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7616,13 +7408,11 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7640,7 +7430,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7655,24 +7445,24 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7692,19 +7482,19 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7754,7 +7544,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7775,18 +7565,18 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7794,10 +7584,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7806,21 +7596,21 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7844,13 +7634,13 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>80</v>
@@ -7868,13 +7658,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7883,24 +7673,24 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7911,7 +7701,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7920,21 +7710,21 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7982,13 +7772,13 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
@@ -7997,24 +7787,24 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8025,7 +7815,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -8037,20 +7827,18 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8098,13 +7886,13 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>80</v>
@@ -8113,24 +7901,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8141,7 +7929,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>80</v>
@@ -8153,20 +7941,18 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8214,13 +8000,13 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>80</v>
@@ -8235,22 +8021,20 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8259,7 +8043,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -8271,16 +8055,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8330,13 +8114,13 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
@@ -8345,24 +8129,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8370,7 +8154,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
@@ -8385,18 +8169,18 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8444,10 +8228,10 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -8459,24 +8243,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8499,16 +8283,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>389</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8534,13 +8318,13 @@
         <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>80</v>
@@ -8558,7 +8342,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8573,24 +8357,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8613,16 +8397,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8672,7 +8456,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8687,16 +8471,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8704,7 +8488,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8712,10 +8496,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8724,18 +8508,20 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8784,13 +8570,13 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8799,24 +8585,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8827,7 +8613,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>80</v>
@@ -8836,19 +8622,19 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8898,13 +8684,13 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>80</v>
@@ -8913,16 +8699,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8930,7 +8716,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8953,17 +8739,15 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -9012,7 +8796,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9027,16 +8811,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9044,7 +8828,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9064,20 +8848,18 @@
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9102,11 +8884,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9124,7 +8908,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>426</v>
+        <v>171</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9136,16 +8920,16 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>432</v>
+        <v>172</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -9156,7 +8940,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9167,7 +8951,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -9179,17 +8963,15 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>434</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9226,31 +9008,29 @@
         <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>433</v>
+        <v>177</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
@@ -9259,10 +9039,10 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9270,9 +9050,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9293,17 +9075,15 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>189</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9328,13 +9108,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9352,7 +9132,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>177</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9361,32 +9141,34 @@
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9395,7 +9177,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>80</v>
@@ -9407,17 +9189,15 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9466,7 +9246,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>450</v>
+        <v>177</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9475,22 +9255,22 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9502,7 +9282,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9515,13 +9295,13 @@
         <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>459</v>
@@ -9530,9 +9310,11 @@
         <v>460</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9580,7 +9362,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9592,16 +9374,16 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>463</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9394,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9623,7 +9405,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>80</v>
@@ -9632,19 +9414,19 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>440</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9694,13 +9476,13 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>80</v>
@@ -9715,7 +9497,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9737,7 +9519,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -9746,20 +9528,18 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>468</v>
+        <v>168</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>469</v>
+        <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
@@ -9808,28 +9588,28 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>467</v>
+        <v>171</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>472</v>
+        <v>172</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9840,18 +9620,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9860,21 +9640,21 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>474</v>
+        <v>174</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9922,28 +9702,28 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>473</v>
+        <v>177</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>478</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9954,41 +9734,43 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10012,13 +9794,13 @@
         <v>80</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>80</v>
@@ -10036,19 +9818,19 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -10057,7 +9839,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>485</v>
+        <v>131</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -10068,7 +9850,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10079,7 +9861,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
@@ -10091,16 +9873,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10150,39 +9932,39 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10193,7 +9975,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>80</v>
@@ -10205,16 +9987,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10264,13 +10046,13 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>80</v>
@@ -10279,13 +10061,13 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10296,7 +10078,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10307,7 +10089,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10319,16 +10101,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10378,13 +10160,13 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
@@ -10399,7 +10181,7 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10410,7 +10192,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10433,16 +10215,20 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>507</v>
+        <v>218</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10490,7 +10276,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10508,10 +10294,10 @@
         <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10522,7 +10308,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10548,10 +10334,10 @@
         <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>514</v>
+        <v>170</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10634,11 +10420,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10660,12 +10446,14 @@
         <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -10704,7 +10492,9 @@
       <c r="AA72" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AB72" s="2"/>
+      <c r="AB72" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="AC72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10733,7 +10523,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10744,11 +10534,9 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10757,7 +10545,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -10766,18 +10554,20 @@
         <v>80</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>517</v>
+        <v>338</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -10826,19 +10616,19 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>177</v>
+        <v>499</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>144</v>
+        <v>500</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -10847,22 +10637,20 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10880,23 +10668,27 @@
         <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>521</v>
+        <v>338</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="Q74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10940,19 +10732,19 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>177</v>
+        <v>508</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>144</v>
+        <v>500</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
@@ -10961,54 +10753,52 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11056,39 +10846,39 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11111,16 +10901,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11170,7 +10960,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11179,10 +10969,10 @@
         <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>475</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11191,18 +10981,18 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11225,15 +11015,17 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>169</v>
+        <v>523</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -11282,7 +11074,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>171</v>
+        <v>522</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11294,16 +11086,16 @@
         <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>172</v>
+        <v>527</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11314,18 +11106,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -11337,17 +11129,15 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>80</v>
@@ -11396,19 +11186,19 @@
         <v>80</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>80</v>
@@ -11428,11 +11218,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>525</v>
+        <v>146</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11445,26 +11235,24 @@
         <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>526</v>
+        <v>174</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>527</v>
+        <v>175</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11500,19 +11288,19 @@
         <v>80</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>528</v>
+        <v>177</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11533,7 +11321,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11544,7 +11332,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11564,21 +11352,23 @@
         <v>80</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11626,39 +11416,39 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11675,72 +11465,74 @@
         <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P81" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Q81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11761,18 +11553,18 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11792,27 +11584,27 @@
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>80</v>
@@ -11854,7 +11646,7 @@
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11875,18 +11667,18 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11906,29 +11698,27 @@
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>80</v>
@@ -11970,7 +11760,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11979,7 +11769,7 @@
         <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>100</v>
@@ -11988,21 +11778,21 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12022,25 +11812,29 @@
         <v>80</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>169</v>
+        <v>566</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>80</v>
@@ -12082,7 +11876,7 @@
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>171</v>
+        <v>571</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12094,7 +11888,7 @@
         <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -12103,29 +11897,29 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>172</v>
+        <v>572</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>80</v>
@@ -12137,16 +11931,16 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>133</v>
+        <v>574</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>575</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>175</v>
+        <v>576</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12184,31 +11978,31 @@
         <v>80</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>80</v>
@@ -12217,10 +12011,10 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>172</v>
+        <v>577</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12228,7 +12022,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12248,20 +12042,18 @@
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -12310,7 +12102,7 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12319,7 +12111,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12328,21 +12120,21 @@
         <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12362,27 +12154,23 @@
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>405</v>
+        <v>168</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>571</v>
+        <v>169</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>574</v>
-      </c>
+      <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12426,7 +12214,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>575</v>
+        <v>171</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12435,10 +12223,10 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>80</v>
@@ -12447,29 +12235,29 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>576</v>
+        <v>172</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>80</v>
@@ -12481,16 +12269,16 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>579</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>580</v>
+        <v>174</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>581</v>
+        <v>175</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>582</v>
+        <v>149</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12540,73 +12328,75 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>578</v>
+        <v>177</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>583</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>584</v>
+        <v>172</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>585</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>538</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>587</v>
+        <v>459</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12654,19 +12444,19 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>586</v>
+        <v>461</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>542</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>80</v>
@@ -12675,18 +12465,18 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>543</v>
+        <v>131</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12694,7 +12484,7 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>88</v>
@@ -12709,16 +12499,16 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>546</v>
+        <v>189</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12744,13 +12534,11 @@
         <v>80</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>80</v>
@@ -12768,10 +12556,10 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>88</v>
@@ -12786,21 +12574,21 @@
         <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12823,15 +12611,17 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>169</v>
+        <v>593</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>80</v>
@@ -12856,13 +12646,13 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -12880,7 +12670,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>171</v>
+        <v>592</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12892,38 +12682,38 @@
         <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>172</v>
+        <v>599</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>80</v>
@@ -12935,16 +12725,16 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>133</v>
+        <v>602</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>174</v>
+        <v>603</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>175</v>
+        <v>604</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>149</v>
+        <v>334</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12982,40 +12772,40 @@
         <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>172</v>
+        <v>606</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13026,18 +12816,18 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>80</v>
@@ -13046,23 +12836,21 @@
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13110,13 +12898,13 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>80</v>
@@ -13131,18 +12919,18 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>605</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13153,36 +12941,34 @@
         <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>108</v>
+        <v>615</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P94" t="s" s="2">
-        <v>610</v>
-      </c>
+      <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13202,13 +12988,13 @@
         <v>80</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>80</v>
@@ -13226,13 +13012,13 @@
         <v>80</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>80</v>
@@ -13241,1498 +13027,18 @@
         <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X103" s="2"/>
-      <c r="Y103" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1393,7 +1393,7 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage}
+    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosageBase}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequestbase.xlsx
@@ -1762,7 +1762,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
   </si>
   <si>
     <t>Quantity.unit</t>
